--- a/atomica/library/usdt_progbook.xlsx
+++ b/atomica/library/usdt_progbook.xlsx
@@ -1,17 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\projects\atomica\atomica\atomica\library\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{702A005A-A98B-44C6-AA61-243A97825DD0}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Program targeting" sheetId="1" r:id="rId1"/>
     <sheet name="Spending data" sheetId="2" r:id="rId2"/>
     <sheet name="Program effects" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="179021"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -144,8 +157,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -246,26 +259,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFA500"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="215">
     <dxf>
       <fill>
         <patternFill patternType="lightUp">
@@ -289,8 +283,1976 @@
         <horizontal/>
       </border>
     </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFEEEEEE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFCCCCCC"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFCCCCCC"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFCCCCCC"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFCCCCCC"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFEEEEEE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFCCCCCC"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFCCCCCC"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFCCCCCC"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFCCCCCC"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFEEEEEE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFCCCCCC"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFCCCCCC"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFCCCCCC"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFCCCCCC"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFEEEEEE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFCCCCCC"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFCCCCCC"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFCCCCCC"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFCCCCCC"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFEEEEEE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFCCCCCC"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFCCCCCC"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFCCCCCC"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFCCCCCC"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFEEEEEE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFCCCCCC"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFCCCCCC"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFCCCCCC"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFCCCCCC"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFEEEEEE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFCCCCCC"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFCCCCCC"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFCCCCCC"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFCCCCCC"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFEEEEEE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFCCCCCC"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFCCCCCC"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFCCCCCC"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFCCCCCC"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFEEEEEE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFCCCCCC"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFCCCCCC"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFCCCCCC"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFCCCCCC"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFEEEEEE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFCCCCCC"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFCCCCCC"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFCCCCCC"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFCCCCCC"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFEEEEEE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFCCCCCC"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFCCCCCC"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFCCCCCC"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFCCCCCC"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFEEEEEE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFCCCCCC"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFCCCCCC"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFCCCCCC"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFCCCCCC"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFEEEEEE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFCCCCCC"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFCCCCCC"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFCCCCCC"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFCCCCCC"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFEEEEEE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFCCCCCC"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFCCCCCC"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFCCCCCC"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFCCCCCC"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFEEEEEE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFCCCCCC"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFCCCCCC"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFCCCCCC"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFCCCCCC"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFEEEEEE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFCCCCCC"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFCCCCCC"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFCCCCCC"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFCCCCCC"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFEEEEEE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFCCCCCC"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFCCCCCC"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFCCCCCC"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFCCCCCC"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFEEEEEE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFCCCCCC"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFCCCCCC"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFCCCCCC"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFCCCCCC"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFEEEEEE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFCCCCCC"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFCCCCCC"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFCCCCCC"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFCCCCCC"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFEEEEEE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFCCCCCC"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFCCCCCC"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFCCCCCC"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFCCCCCC"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFEEEEEE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFCCCCCC"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFCCCCCC"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFCCCCCC"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFCCCCCC"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFEEEEEE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFCCCCCC"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFCCCCCC"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFCCCCCC"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFCCCCCC"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFEEEEEE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFCCCCCC"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFCCCCCC"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFCCCCCC"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFCCCCCC"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFEEEEEE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFCCCCCC"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFCCCCCC"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFCCCCCC"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFCCCCCC"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFEEEEEE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFCCCCCC"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFCCCCCC"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFCCCCCC"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFCCCCCC"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFEEEEEE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFCCCCCC"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFCCCCCC"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFCCCCCC"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFCCCCCC"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFEEEEEE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFCCCCCC"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFCCCCCC"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFCCCCCC"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFCCCCCC"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFEEEEEE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFCCCCCC"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFCCCCCC"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFCCCCCC"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFCCCCCC"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFEEEEEE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFCCCCCC"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFCCCCCC"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFCCCCCC"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFCCCCCC"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFEEEEEE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFCCCCCC"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFCCCCCC"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFCCCCCC"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFCCCCCC"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFEEEEEE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFCCCCCC"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFCCCCCC"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFCCCCCC"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFCCCCCC"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFEEEEEE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFCCCCCC"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFCCCCCC"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFCCCCCC"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFCCCCCC"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFEEEEEE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFCCCCCC"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFCCCCCC"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFCCCCCC"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFCCCCCC"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFEEEEEE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFCCCCCC"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFCCCCCC"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFCCCCCC"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFCCCCCC"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFEEEEEE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFCCCCCC"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFCCCCCC"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFCCCCCC"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFCCCCCC"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -578,23 +2540,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="36.85546875" customWidth="1"/>
-    <col min="2" max="2" width="36.85546875" customWidth="1"/>
+    <col min="1" max="2" width="36.85546875" customWidth="1"/>
     <col min="3" max="3" width="14.85546875" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" customWidth="1"/>
+    <col min="5" max="8" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
@@ -602,7 +2560,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -625,7 +2583,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -648,7 +2606,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -671,7 +2629,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -694,7 +2652,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -717,7 +2675,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -740,7 +2698,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -763,7 +2721,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -786,7 +2744,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -809,7 +2767,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>19</v>
       </c>
@@ -834,364 +2792,232 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C10">
-    <cfRule type="cellIs" dxfId="0" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="214" priority="36" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C11">
-    <cfRule type="cellIs" dxfId="0" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="213" priority="41" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="212" priority="1" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4">
-    <cfRule type="cellIs" dxfId="0" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="211" priority="6" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5">
-    <cfRule type="cellIs" dxfId="0" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="210" priority="11" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C6">
-    <cfRule type="cellIs" dxfId="0" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="209" priority="16" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7">
-    <cfRule type="cellIs" dxfId="0" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="208" priority="21" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C8">
-    <cfRule type="cellIs" dxfId="0" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="207" priority="26" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C9">
-    <cfRule type="cellIs" dxfId="0" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="206" priority="31" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E10">
-    <cfRule type="cellIs" dxfId="0" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="205" priority="37" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E11">
-    <cfRule type="cellIs" dxfId="0" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="204" priority="42" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3">
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="203" priority="2" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4">
-    <cfRule type="cellIs" dxfId="0" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="202" priority="7" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E5">
-    <cfRule type="cellIs" dxfId="0" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="201" priority="12" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E6">
-    <cfRule type="cellIs" dxfId="0" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="200" priority="17" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E7">
-    <cfRule type="cellIs" dxfId="0" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="199" priority="22" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E8">
-    <cfRule type="cellIs" dxfId="0" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="198" priority="27" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E9">
-    <cfRule type="cellIs" dxfId="0" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="197" priority="32" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F10">
-    <cfRule type="cellIs" dxfId="0" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="196" priority="38" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F11">
-    <cfRule type="cellIs" dxfId="0" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="195" priority="43" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3">
-    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="194" priority="3" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4">
-    <cfRule type="cellIs" dxfId="0" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="193" priority="8" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F5">
-    <cfRule type="cellIs" dxfId="0" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="192" priority="13" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6">
-    <cfRule type="cellIs" dxfId="0" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="191" priority="18" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F7">
-    <cfRule type="cellIs" dxfId="0" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="190" priority="23" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F8">
-    <cfRule type="cellIs" dxfId="0" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="189" priority="28" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F9">
-    <cfRule type="cellIs" dxfId="0" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="188" priority="33" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G10">
-    <cfRule type="cellIs" dxfId="0" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="187" priority="39" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G11">
-    <cfRule type="cellIs" dxfId="0" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="186" priority="44" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3">
-    <cfRule type="cellIs" dxfId="0" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="185" priority="4" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4">
-    <cfRule type="cellIs" dxfId="0" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="184" priority="9" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G5">
-    <cfRule type="cellIs" dxfId="0" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="183" priority="14" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G6">
-    <cfRule type="cellIs" dxfId="0" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="182" priority="19" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G7">
-    <cfRule type="cellIs" dxfId="0" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="181" priority="24" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G8">
-    <cfRule type="cellIs" dxfId="0" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="180" priority="29" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G9">
-    <cfRule type="cellIs" dxfId="0" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="179" priority="34" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H10">
-    <cfRule type="cellIs" dxfId="0" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="178" priority="40" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H11">
-    <cfRule type="cellIs" dxfId="0" priority="45" operator="equal">
+    <cfRule type="cellIs" dxfId="177" priority="45" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3">
-    <cfRule type="cellIs" dxfId="0" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="176" priority="5" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4">
-    <cfRule type="cellIs" dxfId="0" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="175" priority="10" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H5">
-    <cfRule type="cellIs" dxfId="0" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="174" priority="15" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6">
-    <cfRule type="cellIs" dxfId="0" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="173" priority="20" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H7">
-    <cfRule type="cellIs" dxfId="0" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="172" priority="25" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H8">
-    <cfRule type="cellIs" dxfId="0" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="171" priority="30" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H9">
-    <cfRule type="cellIs" dxfId="0" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="170" priority="35" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="45">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F3">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G4">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H4">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E5">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F5">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G5">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H5">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C6">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E6">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F6">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G6">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H6">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E7">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F7">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G7">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H7">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E8">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F8">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G8">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H8">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C9">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E9">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F9">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G9">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H9">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C10">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E10">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F10">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G10">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H10">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C11">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E11">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F11">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G11">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H11">
+  <dataValidations count="1">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="E3:H11 C3:C11" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"Y,N"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1200,21 +3026,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I62"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="36.85546875" customWidth="1"/>
-    <col min="2" max="2" width="13.85546875" customWidth="1"/>
-    <col min="3" max="3" width="13.85546875" customWidth="1"/>
+    <col min="2" max="3" width="13.85546875" customWidth="1"/>
     <col min="4" max="4" width="12.7109375" customWidth="1"/>
     <col min="5" max="5" width="3.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="str">
         <f>'Program targeting'!$B$3</f>
         <v>Screening at pharmacies</v>
@@ -1242,7 +3067,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>23</v>
       </c>
@@ -1261,7 +3086,7 @@
       </c>
       <c r="I2" s="6"/>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>26</v>
       </c>
@@ -1280,7 +3105,7 @@
       </c>
       <c r="I3" s="6"/>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>28</v>
       </c>
@@ -1297,7 +3122,7 @@
       <c r="H4" s="5"/>
       <c r="I4" s="5"/>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>30</v>
       </c>
@@ -1314,7 +3139,7 @@
       <c r="H5" s="5"/>
       <c r="I5" s="5"/>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>32</v>
       </c>
@@ -1333,7 +3158,7 @@
       </c>
       <c r="I6" s="6"/>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="str">
         <f>'Program targeting'!$B$4</f>
         <v>Screening at PHC</v>
@@ -1361,7 +3186,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>23</v>
       </c>
@@ -1380,7 +3205,7 @@
       </c>
       <c r="I9" s="6"/>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>26</v>
       </c>
@@ -1395,11 +3220,11 @@
       <c r="F10" s="6"/>
       <c r="G10" s="6"/>
       <c r="H10" s="6">
-        <v>299.9999999999999</v>
+        <v>299.99999999999989</v>
       </c>
       <c r="I10" s="6"/>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>28</v>
       </c>
@@ -1416,7 +3241,7 @@
       <c r="H11" s="5"/>
       <c r="I11" s="5"/>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>30</v>
       </c>
@@ -1433,7 +3258,7 @@
       <c r="H12" s="5"/>
       <c r="I12" s="5"/>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>32</v>
       </c>
@@ -1452,7 +3277,7 @@
       </c>
       <c r="I13" s="6"/>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="str">
         <f>'Program targeting'!$B$5</f>
         <v>Screening via outreach</v>
@@ -1480,7 +3305,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>23</v>
       </c>
@@ -1499,7 +3324,7 @@
       </c>
       <c r="I16" s="6"/>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>26</v>
       </c>
@@ -1518,7 +3343,7 @@
       </c>
       <c r="I17" s="6"/>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>28</v>
       </c>
@@ -1535,7 +3360,7 @@
       <c r="H18" s="5"/>
       <c r="I18" s="5"/>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>30</v>
       </c>
@@ -1552,7 +3377,7 @@
       <c r="H19" s="5"/>
       <c r="I19" s="5"/>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>32</v>
       </c>
@@ -1571,7 +3396,7 @@
       </c>
       <c r="I20" s="6"/>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="str">
         <f>'Program targeting'!$B$6</f>
         <v>Confirmatory test - doctor</v>
@@ -1599,7 +3424,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>23</v>
       </c>
@@ -1618,7 +3443,7 @@
       </c>
       <c r="I23" s="6"/>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>26</v>
       </c>
@@ -1637,7 +3462,7 @@
       </c>
       <c r="I24" s="6"/>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>28</v>
       </c>
@@ -1654,7 +3479,7 @@
       <c r="H25" s="5"/>
       <c r="I25" s="5"/>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>30</v>
       </c>
@@ -1671,7 +3496,7 @@
       <c r="H26" s="5"/>
       <c r="I26" s="5"/>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>32</v>
       </c>
@@ -1690,7 +3515,7 @@
       </c>
       <c r="I27" s="6"/>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="str">
         <f>'Program targeting'!$B$7</f>
         <v>Confirmatory test - nurse</v>
@@ -1718,7 +3543,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>23</v>
       </c>
@@ -1737,7 +3562,7 @@
       </c>
       <c r="I30" s="6"/>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>26</v>
       </c>
@@ -1756,7 +3581,7 @@
       </c>
       <c r="I31" s="6"/>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>28</v>
       </c>
@@ -1773,7 +3598,7 @@
       <c r="H32" s="5"/>
       <c r="I32" s="5"/>
     </row>
-    <row r="33" spans="1:9">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>30</v>
       </c>
@@ -1790,7 +3615,7 @@
       <c r="H33" s="5"/>
       <c r="I33" s="5"/>
     </row>
-    <row r="34" spans="1:9">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>32</v>
       </c>
@@ -1809,7 +3634,7 @@
       </c>
       <c r="I34" s="6"/>
     </row>
-    <row r="36" spans="1:9">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="str">
         <f>'Program targeting'!$B$8</f>
         <v>Treatment initiation counselling</v>
@@ -1837,7 +3662,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="37" spans="1:9">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>23</v>
       </c>
@@ -1856,7 +3681,7 @@
       </c>
       <c r="I37" s="6"/>
     </row>
-    <row r="38" spans="1:9">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>26</v>
       </c>
@@ -1875,7 +3700,7 @@
       </c>
       <c r="I38" s="6"/>
     </row>
-    <row r="39" spans="1:9">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>28</v>
       </c>
@@ -1892,7 +3717,7 @@
       <c r="H39" s="5"/>
       <c r="I39" s="5"/>
     </row>
-    <row r="40" spans="1:9">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>30</v>
       </c>
@@ -1909,7 +3734,7 @@
       <c r="H40" s="5"/>
       <c r="I40" s="5"/>
     </row>
-    <row r="41" spans="1:9">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>32</v>
       </c>
@@ -1928,7 +3753,7 @@
       </c>
       <c r="I41" s="6"/>
     </row>
-    <row r="43" spans="1:9">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="str">
         <f>'Program targeting'!$B$9</f>
         <v>Treatment initiation course</v>
@@ -1956,7 +3781,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="44" spans="1:9">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>23</v>
       </c>
@@ -1975,7 +3800,7 @@
       </c>
       <c r="I44" s="6"/>
     </row>
-    <row r="45" spans="1:9">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>26</v>
       </c>
@@ -1994,7 +3819,7 @@
       </c>
       <c r="I45" s="6"/>
     </row>
-    <row r="46" spans="1:9">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>28</v>
       </c>
@@ -2011,7 +3836,7 @@
       <c r="H46" s="5"/>
       <c r="I46" s="5"/>
     </row>
-    <row r="47" spans="1:9">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>30</v>
       </c>
@@ -2028,7 +3853,7 @@
       <c r="H47" s="5"/>
       <c r="I47" s="5"/>
     </row>
-    <row r="48" spans="1:9">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>32</v>
       </c>
@@ -2047,7 +3872,7 @@
       </c>
       <c r="I48" s="6"/>
     </row>
-    <row r="50" spans="1:9">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="str">
         <f>'Program targeting'!$B$10</f>
         <v>Adherence counselling</v>
@@ -2075,7 +3900,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="51" spans="1:9">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>23</v>
       </c>
@@ -2094,7 +3919,7 @@
       </c>
       <c r="I51" s="6"/>
     </row>
-    <row r="52" spans="1:9">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>26</v>
       </c>
@@ -2113,7 +3938,7 @@
       </c>
       <c r="I52" s="6"/>
     </row>
-    <row r="53" spans="1:9">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>28</v>
       </c>
@@ -2130,7 +3955,7 @@
       <c r="H53" s="5"/>
       <c r="I53" s="5"/>
     </row>
-    <row r="54" spans="1:9">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>30</v>
       </c>
@@ -2147,7 +3972,7 @@
       <c r="H54" s="5"/>
       <c r="I54" s="5"/>
     </row>
-    <row r="55" spans="1:9">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>32</v>
       </c>
@@ -2166,7 +3991,7 @@
       </c>
       <c r="I55" s="6"/>
     </row>
-    <row r="57" spans="1:9">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="str">
         <f>'Program targeting'!$B$11</f>
         <v>Online adherence course</v>
@@ -2194,7 +4019,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="58" spans="1:9">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>23</v>
       </c>
@@ -2213,7 +4038,7 @@
       </c>
       <c r="I58" s="6"/>
     </row>
-    <row r="59" spans="1:9">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
         <v>26</v>
       </c>
@@ -2232,7 +4057,7 @@
       </c>
       <c r="I59" s="6"/>
     </row>
-    <row r="60" spans="1:9">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>28</v>
       </c>
@@ -2249,7 +4074,7 @@
       <c r="H60" s="5"/>
       <c r="I60" s="5"/>
     </row>
-    <row r="61" spans="1:9">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
         <v>30</v>
       </c>
@@ -2266,7 +4091,7 @@
       <c r="H61" s="5"/>
       <c r="I61" s="5"/>
     </row>
-    <row r="62" spans="1:9">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>32</v>
       </c>
@@ -2287,418 +4112,370 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C10">
-    <cfRule type="expression" dxfId="1" priority="13">
+    <cfRule type="expression" dxfId="169" priority="13">
       <formula>COUNTIF(F10:I10,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="14">
+    <cfRule type="expression" dxfId="168" priority="14">
       <formula>AND(COUNTIF(F10:I10,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C10)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C11">
-    <cfRule type="expression" dxfId="1" priority="15">
+    <cfRule type="expression" dxfId="167" priority="15">
       <formula>COUNTIF(F11:I11,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="16">
+    <cfRule type="expression" dxfId="166" priority="16">
       <formula>AND(COUNTIF(F11:I11,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C11)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C12">
-    <cfRule type="expression" dxfId="1" priority="17">
+    <cfRule type="expression" dxfId="165" priority="17">
       <formula>COUNTIF(F12:I12,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="18">
+    <cfRule type="expression" dxfId="164" priority="18">
       <formula>AND(COUNTIF(F12:I12,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C12)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C13">
-    <cfRule type="expression" dxfId="1" priority="19">
+    <cfRule type="expression" dxfId="163" priority="19">
       <formula>COUNTIF(F13:I13,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="20">
+    <cfRule type="expression" dxfId="162" priority="20">
       <formula>AND(COUNTIF(F13:I13,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C13)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C16">
-    <cfRule type="expression" dxfId="1" priority="21">
+    <cfRule type="expression" dxfId="161" priority="21">
       <formula>COUNTIF(F16:I16,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="22">
+    <cfRule type="expression" dxfId="160" priority="22">
       <formula>AND(COUNTIF(F16:I16,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C17">
-    <cfRule type="expression" dxfId="1" priority="23">
+    <cfRule type="expression" dxfId="159" priority="23">
       <formula>COUNTIF(F17:I17,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="24">
+    <cfRule type="expression" dxfId="158" priority="24">
       <formula>AND(COUNTIF(F17:I17,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C17)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C18">
-    <cfRule type="expression" dxfId="1" priority="25">
+    <cfRule type="expression" dxfId="157" priority="25">
       <formula>COUNTIF(F18:I18,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="26">
+    <cfRule type="expression" dxfId="156" priority="26">
       <formula>AND(COUNTIF(F18:I18,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C18)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C19">
-    <cfRule type="expression" dxfId="1" priority="27">
+    <cfRule type="expression" dxfId="155" priority="27">
       <formula>COUNTIF(F19:I19,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="28">
+    <cfRule type="expression" dxfId="154" priority="28">
       <formula>AND(COUNTIF(F19:I19,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C19)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2">
-    <cfRule type="expression" dxfId="1" priority="1">
+    <cfRule type="expression" dxfId="153" priority="1">
       <formula>COUNTIF(F2:I2,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="2">
+    <cfRule type="expression" dxfId="152" priority="2">
       <formula>AND(COUNTIF(F2:I2,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C20">
-    <cfRule type="expression" dxfId="1" priority="29">
+    <cfRule type="expression" dxfId="151" priority="29">
       <formula>COUNTIF(F20:I20,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="30">
+    <cfRule type="expression" dxfId="150" priority="30">
       <formula>AND(COUNTIF(F20:I20,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C20)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C23">
-    <cfRule type="expression" dxfId="1" priority="31">
+    <cfRule type="expression" dxfId="149" priority="31">
       <formula>COUNTIF(F23:I23,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="32">
+    <cfRule type="expression" dxfId="148" priority="32">
       <formula>AND(COUNTIF(F23:I23,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C23)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C24">
-    <cfRule type="expression" dxfId="1" priority="33">
+    <cfRule type="expression" dxfId="147" priority="33">
       <formula>COUNTIF(F24:I24,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="34">
+    <cfRule type="expression" dxfId="146" priority="34">
       <formula>AND(COUNTIF(F24:I24,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C24)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C25">
-    <cfRule type="expression" dxfId="1" priority="35">
+    <cfRule type="expression" dxfId="145" priority="35">
       <formula>COUNTIF(F25:I25,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="36">
+    <cfRule type="expression" dxfId="144" priority="36">
       <formula>AND(COUNTIF(F25:I25,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C25)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C26">
-    <cfRule type="expression" dxfId="1" priority="37">
+    <cfRule type="expression" dxfId="143" priority="37">
       <formula>COUNTIF(F26:I26,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="38">
+    <cfRule type="expression" dxfId="142" priority="38">
       <formula>AND(COUNTIF(F26:I26,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C26)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C27">
-    <cfRule type="expression" dxfId="1" priority="39">
+    <cfRule type="expression" dxfId="141" priority="39">
       <formula>COUNTIF(F27:I27,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="40">
+    <cfRule type="expression" dxfId="140" priority="40">
       <formula>AND(COUNTIF(F27:I27,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C27)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3">
-    <cfRule type="expression" dxfId="1" priority="3">
+    <cfRule type="expression" dxfId="139" priority="3">
       <formula>COUNTIF(F3:I3,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="4">
+    <cfRule type="expression" dxfId="138" priority="4">
       <formula>AND(COUNTIF(F3:I3,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C30">
-    <cfRule type="expression" dxfId="1" priority="41">
+    <cfRule type="expression" dxfId="137" priority="41">
       <formula>COUNTIF(F30:I30,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="42">
+    <cfRule type="expression" dxfId="136" priority="42">
       <formula>AND(COUNTIF(F30:I30,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C30)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C31">
-    <cfRule type="expression" dxfId="1" priority="43">
+    <cfRule type="expression" dxfId="135" priority="43">
       <formula>COUNTIF(F31:I31,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="44">
+    <cfRule type="expression" dxfId="134" priority="44">
       <formula>AND(COUNTIF(F31:I31,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C31)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C32">
-    <cfRule type="expression" dxfId="1" priority="45">
+    <cfRule type="expression" dxfId="133" priority="45">
       <formula>COUNTIF(F32:I32,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="46">
+    <cfRule type="expression" dxfId="132" priority="46">
       <formula>AND(COUNTIF(F32:I32,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C32)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C33">
-    <cfRule type="expression" dxfId="1" priority="47">
+    <cfRule type="expression" dxfId="131" priority="47">
       <formula>COUNTIF(F33:I33,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="48">
+    <cfRule type="expression" dxfId="130" priority="48">
       <formula>AND(COUNTIF(F33:I33,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C33)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C34">
-    <cfRule type="expression" dxfId="1" priority="49">
+    <cfRule type="expression" dxfId="129" priority="49">
       <formula>COUNTIF(F34:I34,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="50">
+    <cfRule type="expression" dxfId="128" priority="50">
       <formula>AND(COUNTIF(F34:I34,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C34)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C37">
-    <cfRule type="expression" dxfId="1" priority="51">
+    <cfRule type="expression" dxfId="127" priority="51">
       <formula>COUNTIF(F37:I37,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="52">
+    <cfRule type="expression" dxfId="126" priority="52">
       <formula>AND(COUNTIF(F37:I37,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C37)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C38">
-    <cfRule type="expression" dxfId="1" priority="53">
+    <cfRule type="expression" dxfId="125" priority="53">
       <formula>COUNTIF(F38:I38,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="54">
+    <cfRule type="expression" dxfId="124" priority="54">
       <formula>AND(COUNTIF(F38:I38,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C38)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C39">
-    <cfRule type="expression" dxfId="1" priority="55">
+    <cfRule type="expression" dxfId="123" priority="55">
       <formula>COUNTIF(F39:I39,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="56">
+    <cfRule type="expression" dxfId="122" priority="56">
       <formula>AND(COUNTIF(F39:I39,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C39)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4">
-    <cfRule type="expression" dxfId="1" priority="5">
+    <cfRule type="expression" dxfId="121" priority="5">
       <formula>COUNTIF(F4:I4,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="6">
+    <cfRule type="expression" dxfId="120" priority="6">
       <formula>AND(COUNTIF(F4:I4,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C40">
-    <cfRule type="expression" dxfId="1" priority="57">
+    <cfRule type="expression" dxfId="119" priority="57">
       <formula>COUNTIF(F40:I40,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="58">
+    <cfRule type="expression" dxfId="118" priority="58">
       <formula>AND(COUNTIF(F40:I40,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C40)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C41">
-    <cfRule type="expression" dxfId="1" priority="59">
+    <cfRule type="expression" dxfId="117" priority="59">
       <formula>COUNTIF(F41:I41,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="60">
+    <cfRule type="expression" dxfId="116" priority="60">
       <formula>AND(COUNTIF(F41:I41,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C41)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C44">
-    <cfRule type="expression" dxfId="1" priority="61">
+    <cfRule type="expression" dxfId="115" priority="61">
       <formula>COUNTIF(F44:I44,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="62">
+    <cfRule type="expression" dxfId="114" priority="62">
       <formula>AND(COUNTIF(F44:I44,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C44)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C45">
-    <cfRule type="expression" dxfId="1" priority="63">
+    <cfRule type="expression" dxfId="113" priority="63">
       <formula>COUNTIF(F45:I45,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="64">
+    <cfRule type="expression" dxfId="112" priority="64">
       <formula>AND(COUNTIF(F45:I45,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C45)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C46">
-    <cfRule type="expression" dxfId="1" priority="65">
+    <cfRule type="expression" dxfId="111" priority="65">
       <formula>COUNTIF(F46:I46,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="66">
+    <cfRule type="expression" dxfId="110" priority="66">
       <formula>AND(COUNTIF(F46:I46,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C46)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C47">
-    <cfRule type="expression" dxfId="1" priority="67">
+    <cfRule type="expression" dxfId="109" priority="67">
       <formula>COUNTIF(F47:I47,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="68">
+    <cfRule type="expression" dxfId="108" priority="68">
       <formula>AND(COUNTIF(F47:I47,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C47)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C48">
-    <cfRule type="expression" dxfId="1" priority="69">
+    <cfRule type="expression" dxfId="107" priority="69">
       <formula>COUNTIF(F48:I48,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="70">
+    <cfRule type="expression" dxfId="106" priority="70">
       <formula>AND(COUNTIF(F48:I48,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C48)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5">
-    <cfRule type="expression" dxfId="1" priority="7">
+    <cfRule type="expression" dxfId="105" priority="7">
       <formula>COUNTIF(F5:I5,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="8">
+    <cfRule type="expression" dxfId="104" priority="8">
       <formula>AND(COUNTIF(F5:I5,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C51">
-    <cfRule type="expression" dxfId="1" priority="71">
+    <cfRule type="expression" dxfId="103" priority="71">
       <formula>COUNTIF(F51:I51,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="72">
+    <cfRule type="expression" dxfId="102" priority="72">
       <formula>AND(COUNTIF(F51:I51,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C51)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C52">
-    <cfRule type="expression" dxfId="1" priority="73">
+    <cfRule type="expression" dxfId="101" priority="73">
       <formula>COUNTIF(F52:I52,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="74">
+    <cfRule type="expression" dxfId="100" priority="74">
       <formula>AND(COUNTIF(F52:I52,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C52)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C53">
-    <cfRule type="expression" dxfId="1" priority="75">
+    <cfRule type="expression" dxfId="99" priority="75">
       <formula>COUNTIF(F53:I53,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="76">
+    <cfRule type="expression" dxfId="98" priority="76">
       <formula>AND(COUNTIF(F53:I53,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C53)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C54">
-    <cfRule type="expression" dxfId="1" priority="77">
+    <cfRule type="expression" dxfId="97" priority="77">
       <formula>COUNTIF(F54:I54,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="78">
+    <cfRule type="expression" dxfId="96" priority="78">
       <formula>AND(COUNTIF(F54:I54,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C54)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C55">
-    <cfRule type="expression" dxfId="1" priority="79">
+    <cfRule type="expression" dxfId="95" priority="79">
       <formula>COUNTIF(F55:I55,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="80">
+    <cfRule type="expression" dxfId="94" priority="80">
       <formula>AND(COUNTIF(F55:I55,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C55)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C58">
-    <cfRule type="expression" dxfId="1" priority="81">
+    <cfRule type="expression" dxfId="93" priority="81">
       <formula>COUNTIF(F58:I58,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="82">
+    <cfRule type="expression" dxfId="92" priority="82">
       <formula>AND(COUNTIF(F58:I58,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C58)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C59">
-    <cfRule type="expression" dxfId="1" priority="83">
+    <cfRule type="expression" dxfId="91" priority="83">
       <formula>COUNTIF(F59:I59,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="84">
+    <cfRule type="expression" dxfId="90" priority="84">
       <formula>AND(COUNTIF(F59:I59,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C59)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C6">
-    <cfRule type="expression" dxfId="1" priority="9">
+    <cfRule type="expression" dxfId="89" priority="9">
       <formula>COUNTIF(F6:I6,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="10">
+    <cfRule type="expression" dxfId="88" priority="10">
       <formula>AND(COUNTIF(F6:I6,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C60">
-    <cfRule type="expression" dxfId="1" priority="85">
+    <cfRule type="expression" dxfId="87" priority="85">
       <formula>COUNTIF(F60:I60,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="86">
+    <cfRule type="expression" dxfId="86" priority="86">
       <formula>AND(COUNTIF(F60:I60,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C60)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C61">
-    <cfRule type="expression" dxfId="1" priority="87">
+    <cfRule type="expression" dxfId="85" priority="87">
       <formula>COUNTIF(F61:I61,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="88">
+    <cfRule type="expression" dxfId="84" priority="88">
       <formula>AND(COUNTIF(F61:I61,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C61)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C62">
-    <cfRule type="expression" dxfId="1" priority="89">
+    <cfRule type="expression" dxfId="83" priority="89">
       <formula>COUNTIF(F62:I62,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="90">
+    <cfRule type="expression" dxfId="82" priority="90">
       <formula>AND(COUNTIF(F62:I62,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C62)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C9">
-    <cfRule type="expression" dxfId="1" priority="11">
+    <cfRule type="expression" dxfId="81" priority="11">
       <formula>COUNTIF(F9:I9,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="12">
+    <cfRule type="expression" dxfId="80" priority="12">
       <formula>AND(COUNTIF(F9:I9,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C9)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="18">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3">
+  <dataValidations count="2">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B3 B59 B52 B45 B38 B31 B24 B17 B10" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"$/person (one-off),$/person/year"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4">
-      <formula1>"people/year,people"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B10">
-      <formula1>"$/person (one-off),$/person/year"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B11">
-      <formula1>"people/year,people"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B17">
-      <formula1>"$/person (one-off),$/person/year"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B18">
-      <formula1>"people/year,people"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B24">
-      <formula1>"$/person (one-off),$/person/year"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B25">
-      <formula1>"people/year,people"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B31">
-      <formula1>"$/person (one-off),$/person/year"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B32">
-      <formula1>"people/year,people"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B38">
-      <formula1>"$/person (one-off),$/person/year"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B39">
-      <formula1>"people/year,people"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B45">
-      <formula1>"$/person (one-off),$/person/year"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B46">
-      <formula1>"people/year,people"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B52">
-      <formula1>"$/person (one-off),$/person/year"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B53">
-      <formula1>"people/year,people"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B59">
-      <formula1>"$/person (one-off),$/person/year"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B60">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B4 B60 B53 B46 B39 B32 B25 B18 B11" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>"people/year,people"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2707,18 +4484,15 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:O11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="25.85546875" customWidth="1"/>
-    <col min="2" max="2" width="14.85546875" customWidth="1"/>
-    <col min="3" max="3" width="14.85546875" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" customWidth="1"/>
+    <col min="2" max="5" width="14.85546875" customWidth="1"/>
     <col min="7" max="7" width="27" customWidth="1"/>
     <col min="8" max="8" width="19.28515625" customWidth="1"/>
     <col min="9" max="9" width="25.85546875" customWidth="1"/>
@@ -2730,7 +4504,7 @@
     <col min="15" max="15" width="27" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>33</v>
       </c>
@@ -2783,7 +4557,7 @@
         <v>Online adherence course</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="str">
         <f>'Program targeting'!$C$2</f>
         <v>Adults</v>
@@ -2812,7 +4586,7 @@
       <c r="N2" s="5"/>
       <c r="O2" s="5"/>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>38</v>
       </c>
@@ -2865,7 +4639,7 @@
         <v>Online adherence course</v>
       </c>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" t="str">
         <f>'Program targeting'!$C$2</f>
         <v>Adults</v>
@@ -2892,7 +4666,7 @@
       <c r="N5" s="5"/>
       <c r="O5" s="5"/>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>39</v>
       </c>
@@ -2945,7 +4719,7 @@
         <v>Online adherence course</v>
       </c>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" t="str">
         <f>'Program targeting'!$C$2</f>
         <v>Adults</v>
@@ -2972,7 +4746,7 @@
       <c r="N8" s="5"/>
       <c r="O8" s="5"/>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>40</v>
       </c>
@@ -3025,7 +4799,7 @@
         <v>Online adherence course</v>
       </c>
     </row>
-    <row r="11" spans="1:15">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" t="str">
         <f>'Program targeting'!$C$2</f>
         <v>Adults</v>
@@ -3058,351 +4832,1455 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="D11">
-    <cfRule type="expression" dxfId="1" priority="79">
+    <cfRule type="expression" dxfId="79" priority="79">
       <formula>COUNTIF(F11:O11,"&lt;&gt;" &amp; "")&lt;2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="80">
+    <cfRule type="expression" dxfId="78" priority="80">
       <formula>AND(COUNTIF(F11:O11,"&lt;&gt;" &amp; "")&lt;2,NOT(ISBLANK(D11)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2">
-    <cfRule type="expression" dxfId="1" priority="19">
+    <cfRule type="expression" dxfId="77" priority="19">
       <formula>COUNTIF(F2:O2,"&lt;&gt;" &amp; "")&lt;2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="20">
+    <cfRule type="expression" dxfId="76" priority="20">
       <formula>AND(COUNTIF(F2:O2,"&lt;&gt;" &amp; "")&lt;2,NOT(ISBLANK(D2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5">
-    <cfRule type="expression" dxfId="1" priority="39">
+    <cfRule type="expression" dxfId="75" priority="39">
       <formula>COUNTIF(F5:O5,"&lt;&gt;" &amp; "")&lt;2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="40">
+    <cfRule type="expression" dxfId="74" priority="40">
       <formula>AND(COUNTIF(F5:O5,"&lt;&gt;" &amp; "")&lt;2,NOT(ISBLANK(D5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8">
-    <cfRule type="expression" dxfId="1" priority="59">
+    <cfRule type="expression" dxfId="73" priority="59">
       <formula>COUNTIF(F8:O8,"&lt;&gt;" &amp; "")&lt;2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="60">
+    <cfRule type="expression" dxfId="72" priority="60">
       <formula>AND(COUNTIF(F8:O8,"&lt;&gt;" &amp; "")&lt;2,NOT(ISBLANK(D8)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G11">
-    <cfRule type="expression" dxfId="2" priority="61">
-      <formula>AND('Program targeting'!$C$3&lt;&gt;"Y",NOT(ISBLANK(G11)))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="62">
-      <formula>'Program targeting'!$C$3&lt;&gt;"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G2">
-    <cfRule type="expression" dxfId="2" priority="1">
-      <formula>AND('Program targeting'!$C$3&lt;&gt;"Y",NOT(ISBLANK(G2)))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="2">
-      <formula>'Program targeting'!$C$3&lt;&gt;"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G5">
-    <cfRule type="expression" dxfId="2" priority="21">
-      <formula>AND('Program targeting'!$C$3&lt;&gt;"Y",NOT(ISBLANK(G5)))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="22">
-      <formula>'Program targeting'!$C$3&lt;&gt;"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G8">
-    <cfRule type="expression" dxfId="2" priority="41">
-      <formula>AND('Program targeting'!$C$3&lt;&gt;"Y",NOT(ISBLANK(G8)))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="42">
-      <formula>'Program targeting'!$C$3&lt;&gt;"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H11">
-    <cfRule type="expression" dxfId="2" priority="63">
-      <formula>AND('Program targeting'!$C$4&lt;&gt;"Y",NOT(ISBLANK(H11)))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="64">
-      <formula>'Program targeting'!$C$4&lt;&gt;"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H2">
-    <cfRule type="expression" dxfId="2" priority="3">
-      <formula>AND('Program targeting'!$C$4&lt;&gt;"Y",NOT(ISBLANK(H2)))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="4">
-      <formula>'Program targeting'!$C$4&lt;&gt;"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H5">
-    <cfRule type="expression" dxfId="2" priority="23">
-      <formula>AND('Program targeting'!$C$4&lt;&gt;"Y",NOT(ISBLANK(H5)))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="24">
-      <formula>'Program targeting'!$C$4&lt;&gt;"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H8">
-    <cfRule type="expression" dxfId="2" priority="43">
-      <formula>AND('Program targeting'!$C$4&lt;&gt;"Y",NOT(ISBLANK(H8)))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="44">
-      <formula>'Program targeting'!$C$4&lt;&gt;"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I11">
-    <cfRule type="expression" dxfId="2" priority="65">
-      <formula>AND('Program targeting'!$C$5&lt;&gt;"Y",NOT(ISBLANK(I11)))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="66">
-      <formula>'Program targeting'!$C$5&lt;&gt;"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I2">
-    <cfRule type="expression" dxfId="2" priority="5">
-      <formula>AND('Program targeting'!$C$5&lt;&gt;"Y",NOT(ISBLANK(I2)))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="6">
-      <formula>'Program targeting'!$C$5&lt;&gt;"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I5">
-    <cfRule type="expression" dxfId="2" priority="25">
-      <formula>AND('Program targeting'!$C$5&lt;&gt;"Y",NOT(ISBLANK(I5)))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="26">
-      <formula>'Program targeting'!$C$5&lt;&gt;"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I8">
-    <cfRule type="expression" dxfId="2" priority="45">
-      <formula>AND('Program targeting'!$C$5&lt;&gt;"Y",NOT(ISBLANK(I8)))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="46">
-      <formula>'Program targeting'!$C$5&lt;&gt;"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J11">
-    <cfRule type="expression" dxfId="2" priority="67">
-      <formula>AND('Program targeting'!$C$6&lt;&gt;"Y",NOT(ISBLANK(J11)))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="68">
-      <formula>'Program targeting'!$C$6&lt;&gt;"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J2">
-    <cfRule type="expression" dxfId="2" priority="7">
-      <formula>AND('Program targeting'!$C$6&lt;&gt;"Y",NOT(ISBLANK(J2)))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="8">
-      <formula>'Program targeting'!$C$6&lt;&gt;"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J5">
-    <cfRule type="expression" dxfId="2" priority="27">
-      <formula>AND('Program targeting'!$C$6&lt;&gt;"Y",NOT(ISBLANK(J5)))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="28">
-      <formula>'Program targeting'!$C$6&lt;&gt;"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J8">
-    <cfRule type="expression" dxfId="2" priority="47">
-      <formula>AND('Program targeting'!$C$6&lt;&gt;"Y",NOT(ISBLANK(J8)))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="48">
-      <formula>'Program targeting'!$C$6&lt;&gt;"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K11">
-    <cfRule type="expression" dxfId="2" priority="69">
-      <formula>AND('Program targeting'!$C$7&lt;&gt;"Y",NOT(ISBLANK(K11)))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="70">
-      <formula>'Program targeting'!$C$7&lt;&gt;"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K2">
-    <cfRule type="expression" dxfId="2" priority="9">
-      <formula>AND('Program targeting'!$C$7&lt;&gt;"Y",NOT(ISBLANK(K2)))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="10">
-      <formula>'Program targeting'!$C$7&lt;&gt;"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K5">
-    <cfRule type="expression" dxfId="2" priority="29">
-      <formula>AND('Program targeting'!$C$7&lt;&gt;"Y",NOT(ISBLANK(K5)))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="30">
-      <formula>'Program targeting'!$C$7&lt;&gt;"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K8">
-    <cfRule type="expression" dxfId="2" priority="49">
-      <formula>AND('Program targeting'!$C$7&lt;&gt;"Y",NOT(ISBLANK(K8)))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="50">
-      <formula>'Program targeting'!$C$7&lt;&gt;"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L11">
-    <cfRule type="expression" dxfId="2" priority="71">
-      <formula>AND('Program targeting'!$C$8&lt;&gt;"Y",NOT(ISBLANK(L11)))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="72">
-      <formula>'Program targeting'!$C$8&lt;&gt;"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L2">
-    <cfRule type="expression" dxfId="2" priority="11">
-      <formula>AND('Program targeting'!$C$8&lt;&gt;"Y",NOT(ISBLANK(L2)))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="12">
-      <formula>'Program targeting'!$C$8&lt;&gt;"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L5">
-    <cfRule type="expression" dxfId="2" priority="31">
-      <formula>AND('Program targeting'!$C$8&lt;&gt;"Y",NOT(ISBLANK(L5)))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="32">
-      <formula>'Program targeting'!$C$8&lt;&gt;"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L8">
-    <cfRule type="expression" dxfId="2" priority="51">
-      <formula>AND('Program targeting'!$C$8&lt;&gt;"Y",NOT(ISBLANK(L8)))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="52">
-      <formula>'Program targeting'!$C$8&lt;&gt;"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M11">
-    <cfRule type="expression" dxfId="2" priority="73">
-      <formula>AND('Program targeting'!$C$9&lt;&gt;"Y",NOT(ISBLANK(M11)))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="74">
-      <formula>'Program targeting'!$C$9&lt;&gt;"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M2">
-    <cfRule type="expression" dxfId="2" priority="13">
-      <formula>AND('Program targeting'!$C$9&lt;&gt;"Y",NOT(ISBLANK(M2)))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="14">
-      <formula>'Program targeting'!$C$9&lt;&gt;"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M5">
-    <cfRule type="expression" dxfId="2" priority="33">
-      <formula>AND('Program targeting'!$C$9&lt;&gt;"Y",NOT(ISBLANK(M5)))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="34">
-      <formula>'Program targeting'!$C$9&lt;&gt;"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M8">
-    <cfRule type="expression" dxfId="2" priority="53">
-      <formula>AND('Program targeting'!$C$9&lt;&gt;"Y",NOT(ISBLANK(M8)))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="54">
-      <formula>'Program targeting'!$C$9&lt;&gt;"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N11">
-    <cfRule type="expression" dxfId="2" priority="75">
-      <formula>AND('Program targeting'!$C$10&lt;&gt;"Y",NOT(ISBLANK(N11)))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="76">
-      <formula>'Program targeting'!$C$10&lt;&gt;"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N2">
-    <cfRule type="expression" dxfId="2" priority="15">
-      <formula>AND('Program targeting'!$C$10&lt;&gt;"Y",NOT(ISBLANK(N2)))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="16">
-      <formula>'Program targeting'!$C$10&lt;&gt;"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N5">
-    <cfRule type="expression" dxfId="2" priority="35">
-      <formula>AND('Program targeting'!$C$10&lt;&gt;"Y",NOT(ISBLANK(N5)))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="36">
-      <formula>'Program targeting'!$C$10&lt;&gt;"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N8">
-    <cfRule type="expression" dxfId="2" priority="55">
-      <formula>AND('Program targeting'!$C$10&lt;&gt;"Y",NOT(ISBLANK(N8)))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="56">
-      <formula>'Program targeting'!$C$10&lt;&gt;"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O11">
-    <cfRule type="expression" dxfId="2" priority="77">
-      <formula>AND('Program targeting'!$C$11&lt;&gt;"Y",NOT(ISBLANK(O11)))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="78">
-      <formula>'Program targeting'!$C$11&lt;&gt;"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O2">
-    <cfRule type="expression" dxfId="2" priority="17">
-      <formula>AND('Program targeting'!$C$11&lt;&gt;"Y",NOT(ISBLANK(O2)))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="18">
-      <formula>'Program targeting'!$C$11&lt;&gt;"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O5">
-    <cfRule type="expression" dxfId="2" priority="37">
-      <formula>AND('Program targeting'!$C$11&lt;&gt;"Y",NOT(ISBLANK(O5)))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="38">
-      <formula>'Program targeting'!$C$11&lt;&gt;"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O8">
-    <cfRule type="expression" dxfId="2" priority="57">
-      <formula>AND('Program targeting'!$C$11&lt;&gt;"Y",NOT(ISBLANK(O8)))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="58">
-      <formula>'Program targeting'!$C$11&lt;&gt;"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <dataValidations count="8">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2">
+  <dataValidations count="2">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="C2 C11 C8 C5" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>"Random,Additive,Nested"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2">
-      <formula1>"Synergistic,Best"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5">
-      <formula1>"Random,Additive,Nested"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5">
-      <formula1>"Synergistic,Best"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8">
-      <formula1>"Random,Additive,Nested"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D8">
-      <formula1>"Synergistic,Best"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C11">
-      <formula1>"Random,Additive,Nested"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D11">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="D2 D11 D8 D5" xr:uid="{00000000-0002-0000-0200-000001000000}">
       <formula1>"Synergistic,Best"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="61" id="{00000000-000E-0000-0200-00003D000000}">
+            <xm:f>AND('Program targeting'!$C$3&lt;&gt;"Y",NOT(ISBLANK(G11)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="62" id="{00000000-000E-0000-0200-00003E000000}">
+            <xm:f>'Program targeting'!$C$3&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>G11</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="1" id="{00000000-000E-0000-0200-000001000000}">
+            <xm:f>AND('Program targeting'!$C$3&lt;&gt;"Y",NOT(ISBLANK(G2)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="2" id="{00000000-000E-0000-0200-000002000000}">
+            <xm:f>'Program targeting'!$C$3&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>G2</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="21" id="{00000000-000E-0000-0200-000015000000}">
+            <xm:f>AND('Program targeting'!$C$3&lt;&gt;"Y",NOT(ISBLANK(G5)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="22" id="{00000000-000E-0000-0200-000016000000}">
+            <xm:f>'Program targeting'!$C$3&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>G5</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="41" id="{00000000-000E-0000-0200-000029000000}">
+            <xm:f>AND('Program targeting'!$C$3&lt;&gt;"Y",NOT(ISBLANK(G8)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="42" id="{00000000-000E-0000-0200-00002A000000}">
+            <xm:f>'Program targeting'!$C$3&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>G8</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="63" id="{00000000-000E-0000-0200-00003F000000}">
+            <xm:f>AND('Program targeting'!$C$4&lt;&gt;"Y",NOT(ISBLANK(H11)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="64" id="{00000000-000E-0000-0200-000040000000}">
+            <xm:f>'Program targeting'!$C$4&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>H11</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="3" id="{00000000-000E-0000-0200-000003000000}">
+            <xm:f>AND('Program targeting'!$C$4&lt;&gt;"Y",NOT(ISBLANK(H2)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="4" id="{00000000-000E-0000-0200-000004000000}">
+            <xm:f>'Program targeting'!$C$4&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>H2</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="23" id="{00000000-000E-0000-0200-000017000000}">
+            <xm:f>AND('Program targeting'!$C$4&lt;&gt;"Y",NOT(ISBLANK(H5)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="24" id="{00000000-000E-0000-0200-000018000000}">
+            <xm:f>'Program targeting'!$C$4&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>H5</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="43" id="{00000000-000E-0000-0200-00002B000000}">
+            <xm:f>AND('Program targeting'!$C$4&lt;&gt;"Y",NOT(ISBLANK(H8)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="44" id="{00000000-000E-0000-0200-00002C000000}">
+            <xm:f>'Program targeting'!$C$4&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>H8</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="65" id="{00000000-000E-0000-0200-000041000000}">
+            <xm:f>AND('Program targeting'!$C$5&lt;&gt;"Y",NOT(ISBLANK(I11)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="66" id="{00000000-000E-0000-0200-000042000000}">
+            <xm:f>'Program targeting'!$C$5&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>I11</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="5" id="{00000000-000E-0000-0200-000005000000}">
+            <xm:f>AND('Program targeting'!$C$5&lt;&gt;"Y",NOT(ISBLANK(I2)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="6" id="{00000000-000E-0000-0200-000006000000}">
+            <xm:f>'Program targeting'!$C$5&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>I2</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="25" id="{00000000-000E-0000-0200-000019000000}">
+            <xm:f>AND('Program targeting'!$C$5&lt;&gt;"Y",NOT(ISBLANK(I5)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="26" id="{00000000-000E-0000-0200-00001A000000}">
+            <xm:f>'Program targeting'!$C$5&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>I5</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="45" id="{00000000-000E-0000-0200-00002D000000}">
+            <xm:f>AND('Program targeting'!$C$5&lt;&gt;"Y",NOT(ISBLANK(I8)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="46" id="{00000000-000E-0000-0200-00002E000000}">
+            <xm:f>'Program targeting'!$C$5&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>I8</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="67" id="{00000000-000E-0000-0200-000043000000}">
+            <xm:f>AND('Program targeting'!$C$6&lt;&gt;"Y",NOT(ISBLANK(J11)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="68" id="{00000000-000E-0000-0200-000044000000}">
+            <xm:f>'Program targeting'!$C$6&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>J11</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="7" id="{00000000-000E-0000-0200-000007000000}">
+            <xm:f>AND('Program targeting'!$C$6&lt;&gt;"Y",NOT(ISBLANK(J2)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="8" id="{00000000-000E-0000-0200-000008000000}">
+            <xm:f>'Program targeting'!$C$6&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>J2</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="27" id="{00000000-000E-0000-0200-00001B000000}">
+            <xm:f>AND('Program targeting'!$C$6&lt;&gt;"Y",NOT(ISBLANK(J5)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="28" id="{00000000-000E-0000-0200-00001C000000}">
+            <xm:f>'Program targeting'!$C$6&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>J5</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="47" id="{00000000-000E-0000-0200-00002F000000}">
+            <xm:f>AND('Program targeting'!$C$6&lt;&gt;"Y",NOT(ISBLANK(J8)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="48" id="{00000000-000E-0000-0200-000030000000}">
+            <xm:f>'Program targeting'!$C$6&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>J8</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="69" id="{00000000-000E-0000-0200-000045000000}">
+            <xm:f>AND('Program targeting'!$C$7&lt;&gt;"Y",NOT(ISBLANK(K11)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="70" id="{00000000-000E-0000-0200-000046000000}">
+            <xm:f>'Program targeting'!$C$7&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>K11</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="9" id="{00000000-000E-0000-0200-000009000000}">
+            <xm:f>AND('Program targeting'!$C$7&lt;&gt;"Y",NOT(ISBLANK(K2)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="10" id="{00000000-000E-0000-0200-00000A000000}">
+            <xm:f>'Program targeting'!$C$7&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>K2</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="29" id="{00000000-000E-0000-0200-00001D000000}">
+            <xm:f>AND('Program targeting'!$C$7&lt;&gt;"Y",NOT(ISBLANK(K5)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="30" id="{00000000-000E-0000-0200-00001E000000}">
+            <xm:f>'Program targeting'!$C$7&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>K5</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="49" id="{00000000-000E-0000-0200-000031000000}">
+            <xm:f>AND('Program targeting'!$C$7&lt;&gt;"Y",NOT(ISBLANK(K8)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="50" id="{00000000-000E-0000-0200-000032000000}">
+            <xm:f>'Program targeting'!$C$7&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>K8</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="71" id="{00000000-000E-0000-0200-000047000000}">
+            <xm:f>AND('Program targeting'!$C$8&lt;&gt;"Y",NOT(ISBLANK(L11)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="72" id="{00000000-000E-0000-0200-000048000000}">
+            <xm:f>'Program targeting'!$C$8&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>L11</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="11" id="{00000000-000E-0000-0200-00000B000000}">
+            <xm:f>AND('Program targeting'!$C$8&lt;&gt;"Y",NOT(ISBLANK(L2)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="12" id="{00000000-000E-0000-0200-00000C000000}">
+            <xm:f>'Program targeting'!$C$8&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>L2</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="31" id="{00000000-000E-0000-0200-00001F000000}">
+            <xm:f>AND('Program targeting'!$C$8&lt;&gt;"Y",NOT(ISBLANK(L5)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="32" id="{00000000-000E-0000-0200-000020000000}">
+            <xm:f>'Program targeting'!$C$8&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>L5</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="51" id="{00000000-000E-0000-0200-000033000000}">
+            <xm:f>AND('Program targeting'!$C$8&lt;&gt;"Y",NOT(ISBLANK(L8)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="52" id="{00000000-000E-0000-0200-000034000000}">
+            <xm:f>'Program targeting'!$C$8&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>L8</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="73" id="{00000000-000E-0000-0200-000049000000}">
+            <xm:f>AND('Program targeting'!$C$9&lt;&gt;"Y",NOT(ISBLANK(M11)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="74" id="{00000000-000E-0000-0200-00004A000000}">
+            <xm:f>'Program targeting'!$C$9&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>M11</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="13" id="{00000000-000E-0000-0200-00000D000000}">
+            <xm:f>AND('Program targeting'!$C$9&lt;&gt;"Y",NOT(ISBLANK(M2)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="14" id="{00000000-000E-0000-0200-00000E000000}">
+            <xm:f>'Program targeting'!$C$9&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>M2</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="33" id="{00000000-000E-0000-0200-000021000000}">
+            <xm:f>AND('Program targeting'!$C$9&lt;&gt;"Y",NOT(ISBLANK(M5)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="34" id="{00000000-000E-0000-0200-000022000000}">
+            <xm:f>'Program targeting'!$C$9&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>M5</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="53" id="{00000000-000E-0000-0200-000035000000}">
+            <xm:f>AND('Program targeting'!$C$9&lt;&gt;"Y",NOT(ISBLANK(M8)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="54" id="{00000000-000E-0000-0200-000036000000}">
+            <xm:f>'Program targeting'!$C$9&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>M8</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="75" id="{00000000-000E-0000-0200-00004B000000}">
+            <xm:f>AND('Program targeting'!$C$10&lt;&gt;"Y",NOT(ISBLANK(N11)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="76" id="{00000000-000E-0000-0200-00004C000000}">
+            <xm:f>'Program targeting'!$C$10&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>N11</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="15" id="{00000000-000E-0000-0200-00000F000000}">
+            <xm:f>AND('Program targeting'!$C$10&lt;&gt;"Y",NOT(ISBLANK(N2)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="16" id="{00000000-000E-0000-0200-000010000000}">
+            <xm:f>'Program targeting'!$C$10&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>N2</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="35" id="{00000000-000E-0000-0200-000023000000}">
+            <xm:f>AND('Program targeting'!$C$10&lt;&gt;"Y",NOT(ISBLANK(N5)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="36" id="{00000000-000E-0000-0200-000024000000}">
+            <xm:f>'Program targeting'!$C$10&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>N5</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="55" id="{00000000-000E-0000-0200-000037000000}">
+            <xm:f>AND('Program targeting'!$C$10&lt;&gt;"Y",NOT(ISBLANK(N8)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="56" id="{00000000-000E-0000-0200-000038000000}">
+            <xm:f>'Program targeting'!$C$10&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>N8</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="77" id="{00000000-000E-0000-0200-00004D000000}">
+            <xm:f>AND('Program targeting'!$C$11&lt;&gt;"Y",NOT(ISBLANK(O11)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="78" id="{00000000-000E-0000-0200-00004E000000}">
+            <xm:f>'Program targeting'!$C$11&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>O11</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="17" id="{00000000-000E-0000-0200-000011000000}">
+            <xm:f>AND('Program targeting'!$C$11&lt;&gt;"Y",NOT(ISBLANK(O2)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="18" id="{00000000-000E-0000-0200-000012000000}">
+            <xm:f>'Program targeting'!$C$11&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>O2</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="37" id="{00000000-000E-0000-0200-000025000000}">
+            <xm:f>AND('Program targeting'!$C$11&lt;&gt;"Y",NOT(ISBLANK(O5)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="38" id="{00000000-000E-0000-0200-000026000000}">
+            <xm:f>'Program targeting'!$C$11&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>O5</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="57" id="{00000000-000E-0000-0200-000039000000}">
+            <xm:f>AND('Program targeting'!$C$11&lt;&gt;"Y",NOT(ISBLANK(O8)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="58" id="{00000000-000E-0000-0200-00003A000000}">
+            <xm:f>'Program targeting'!$C$11&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>O8</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/atomica/library/usdt_progbook.xlsx
+++ b/atomica/library/usdt_progbook.xlsx
@@ -3350,30 +3350,18 @@
       <formula>'Program targeting'!$C$11&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="8">
+  <dataValidations count="4">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2">
       <formula1>"Random,Additive,Nested"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2">
-      <formula1>"Synergistic,Best"</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5">
       <formula1>"Random,Additive,Nested"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5">
-      <formula1>"Synergistic,Best"</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8">
       <formula1>"Random,Additive,Nested"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D8">
-      <formula1>"Synergistic,Best"</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C11">
       <formula1>"Random,Additive,Nested"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D11">
-      <formula1>"Synergistic,Best"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
